--- a/test/target/test-classes/test.xlsx
+++ b/test/target/test-classes/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>AMOUNT</t>
   </si>
@@ -37,16 +37,13 @@
     <t>CUSTOMER_NAME</t>
   </si>
   <si>
-    <t>First Order</t>
-  </si>
-  <si>
-    <t>Second Order</t>
-  </si>
-  <si>
     <t>WALMART</t>
   </si>
   <si>
     <t>HOMEDEP</t>
+  </si>
+  <si>
+    <t>Tenth Order</t>
   </si>
 </sst>
 </file>
@@ -420,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -464,16 +461,16 @@
         <v>42616</v>
       </c>
       <c r="C2">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="D2">
-        <v>7777</v>
+        <v>1109</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -484,57 +481,22 @@
         <v>42616</v>
       </c>
       <c r="C3">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="D3">
-        <v>6666</v>
-      </c>
-      <c r="E3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42615</v>
-      </c>
-      <c r="B4" s="1">
-        <v>42616</v>
-      </c>
-      <c r="C4">
-        <v>20000</v>
-      </c>
-      <c r="D4">
-        <v>5555</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42615</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42616</v>
-      </c>
-      <c r="C5">
-        <v>25000</v>
-      </c>
-      <c r="D5">
-        <v>2222</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
